--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251115_201455.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251115_201455.xlsx
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
